--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N2">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q2">
-        <v>182.8292939561867</v>
+        <v>438.697990548138</v>
       </c>
       <c r="R2">
-        <v>182.8292939561867</v>
+        <v>3948.281914933241</v>
       </c>
       <c r="S2">
-        <v>0.003988738888762811</v>
+        <v>0.008685237824015344</v>
       </c>
       <c r="T2">
-        <v>0.003988738888762811</v>
+        <v>0.008685237824015344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q3">
-        <v>12642.68984208178</v>
+        <v>14315.46316883424</v>
       </c>
       <c r="R3">
-        <v>12642.68984208178</v>
+        <v>128839.1685195082</v>
       </c>
       <c r="S3">
-        <v>0.2758222576944526</v>
+        <v>0.2834141137207118</v>
       </c>
       <c r="T3">
-        <v>0.2758222576944526</v>
+        <v>0.2834141137207118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H4">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N4">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q4">
-        <v>32.94627002707757</v>
+        <v>39.07814283711</v>
       </c>
       <c r="R4">
-        <v>32.94627002707757</v>
+        <v>351.70328553399</v>
       </c>
       <c r="S4">
-        <v>0.0007187801563581876</v>
+        <v>0.0007736597193825069</v>
       </c>
       <c r="T4">
-        <v>0.0007187801563581876</v>
+        <v>0.0007736597193825069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H5">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I5">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J5">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N5">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q5">
-        <v>4425.130266081997</v>
+        <v>4958.346483062232</v>
       </c>
       <c r="R5">
-        <v>4425.130266081997</v>
+        <v>44625.11834756009</v>
       </c>
       <c r="S5">
-        <v>0.09654190965914035</v>
+        <v>0.09816415699889133</v>
       </c>
       <c r="T5">
-        <v>0.09654190965914035</v>
+        <v>0.09816415699889133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N6">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q6">
-        <v>82.24914641700084</v>
+        <v>176.7154597117587</v>
       </c>
       <c r="R6">
-        <v>82.24914641700084</v>
+        <v>1590.439137405828</v>
       </c>
       <c r="S6">
-        <v>0.001794408115800396</v>
+        <v>0.003498570378357847</v>
       </c>
       <c r="T6">
-        <v>0.001794408115800396</v>
+        <v>0.003498570378357847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q7">
-        <v>5687.548343184566</v>
+        <v>5766.526652439052</v>
       </c>
       <c r="R7">
-        <v>5687.548343184566</v>
+        <v>51898.73987195146</v>
       </c>
       <c r="S7">
-        <v>0.1240837546723519</v>
+        <v>0.1141643145718047</v>
       </c>
       <c r="T7">
-        <v>0.1240837546723519</v>
+        <v>0.1141643145718047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J8">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N8">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q8">
-        <v>14.8214901929257</v>
+        <v>15.74138045974</v>
       </c>
       <c r="R8">
-        <v>14.8214901929257</v>
+        <v>141.67242413766</v>
       </c>
       <c r="S8">
-        <v>0.0003233565751017267</v>
+        <v>0.0003116440829836626</v>
       </c>
       <c r="T8">
-        <v>0.0003233565751017267</v>
+        <v>0.0003116440829836626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H9">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J9">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N9">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q9">
-        <v>1990.726864900001</v>
+        <v>1997.311355517544</v>
       </c>
       <c r="R9">
-        <v>1990.726864900001</v>
+        <v>17975.8021996579</v>
       </c>
       <c r="S9">
-        <v>0.04343116735348968</v>
+        <v>0.03954229220334861</v>
       </c>
       <c r="T9">
-        <v>0.04343116735348968</v>
+        <v>0.03954229220334861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H10">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N10">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q10">
-        <v>142.8455333173522</v>
+        <v>341.1997666012733</v>
       </c>
       <c r="R10">
-        <v>142.8455333173522</v>
+        <v>3070.79789941146</v>
       </c>
       <c r="S10">
-        <v>0.003116423640324988</v>
+        <v>0.006754991320402264</v>
       </c>
       <c r="T10">
-        <v>0.003116423640324988</v>
+        <v>0.006754991320402266</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H11">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I11">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J11">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q11">
-        <v>9877.803135261371</v>
+        <v>11133.92994094283</v>
       </c>
       <c r="R11">
-        <v>9877.803135261371</v>
+        <v>100205.3694684855</v>
       </c>
       <c r="S11">
-        <v>0.2155014475448452</v>
+        <v>0.2204268803059463</v>
       </c>
       <c r="T11">
-        <v>0.2155014475448452</v>
+        <v>0.2204268803059464</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H12">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I12">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J12">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N12">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q12">
-        <v>25.74110204660746</v>
+        <v>30.3932397743</v>
       </c>
       <c r="R12">
-        <v>25.74110204660746</v>
+        <v>273.5391579687</v>
       </c>
       <c r="S12">
-        <v>0.0005615868909799549</v>
+        <v>0.0006017180870883257</v>
       </c>
       <c r="T12">
-        <v>0.0005615868909799549</v>
+        <v>0.0006017180870883258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H13">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I13">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J13">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N13">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O13">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P13">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q13">
-        <v>3457.37862450379</v>
+        <v>3856.381153319734</v>
       </c>
       <c r="R13">
-        <v>3457.37862450379</v>
+        <v>34707.43037987761</v>
       </c>
       <c r="S13">
-        <v>0.07542872520221146</v>
+        <v>0.07634771113216954</v>
       </c>
       <c r="T13">
-        <v>0.07542872520221146</v>
+        <v>0.07634771113216955</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H14">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I14">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J14">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N14">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O14">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P14">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q14">
-        <v>76.9421686134035</v>
+        <v>165.269883143998</v>
       </c>
       <c r="R14">
-        <v>76.9421686134035</v>
+        <v>1487.428948295982</v>
       </c>
       <c r="S14">
-        <v>0.001678627169055163</v>
+        <v>0.003271973592720026</v>
       </c>
       <c r="T14">
-        <v>0.001678627169055163</v>
+        <v>0.003271973592720027</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H15">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I15">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J15">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P15">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q15">
-        <v>5320.569546089981</v>
+        <v>5393.037980660257</v>
       </c>
       <c r="R15">
-        <v>5320.569546089981</v>
+        <v>48537.34182594231</v>
       </c>
       <c r="S15">
-        <v>0.1160774742363876</v>
+        <v>0.1067700752343476</v>
       </c>
       <c r="T15">
-        <v>0.1160774742363876</v>
+        <v>0.1067700752343476</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H16">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I16">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J16">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N16">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O16">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P16">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q16">
-        <v>13.86516027466366</v>
+        <v>14.72183652381</v>
       </c>
       <c r="R16">
-        <v>13.86516027466366</v>
+        <v>132.49652871429</v>
       </c>
       <c r="S16">
-        <v>0.0003024925753951301</v>
+        <v>0.0002914593961458662</v>
       </c>
       <c r="T16">
-        <v>0.0003024925753951301</v>
+        <v>0.0002914593961458662</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H17">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I17">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J17">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N17">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O17">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P17">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q17">
-        <v>1862.278805007849</v>
+        <v>1867.948706168576</v>
       </c>
       <c r="R17">
-        <v>1862.278805007849</v>
+        <v>16811.53835551719</v>
       </c>
       <c r="S17">
-        <v>0.04062884962534302</v>
+        <v>0.03698120143168434</v>
       </c>
       <c r="T17">
-        <v>0.04062884962534302</v>
+        <v>0.03698120143168435</v>
       </c>
     </row>
   </sheetData>
